--- a/posesiones/1381317.xlsx
+++ b/posesiones/1381317.xlsx
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>26</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>19</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>14</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>14</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>24</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>17</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>19</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2903,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>16</v>
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>20</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3059,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>14</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>17</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>23</v>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>12</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>8</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3559,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>5</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>13</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>21</v>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>22</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R46">
         <v>33</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R48">
         <v>9</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R54">
         <v>28</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4547,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57">
         <v>20</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R61">
         <v>16</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R62">
         <v>14</v>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>15</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R65">
         <v>17</v>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>22</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R72">
         <v>14</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R74">
         <v>3</v>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75">
         <v>20</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R77">
         <v>18</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6264,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R92">
         <v>28</v>
@@ -6317,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R93">
         <v>17</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R95">
         <v>13</v>
@@ -6464,10 +6464,10 @@
         <v>1</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6508,10 +6508,10 @@
         <v>1</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R99">
         <v>8</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6711,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R101">
         <v>20</v>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6814,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R103">
         <v>10</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R105">
         <v>20</v>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7117,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R109">
         <v>27</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R111">
         <v>4</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7320,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R113">
         <v>13</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7420,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R115">
         <v>23</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7564,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R123">
         <v>17</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7899,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8137,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R130">
         <v>16</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8240,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R132">
         <v>19</v>
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8334,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R136">
         <v>14</v>
@@ -8484,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R137">
         <v>18</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8587,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R139">
         <v>7</v>
@@ -8640,7 +8640,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R140">
         <v>12</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8790,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R143">
         <v>37</v>
@@ -8843,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R144">
         <v>22</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8946,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R146">
         <v>15</v>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9099,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R149">
         <v>5</v>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9437,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R156">
         <v>13</v>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9534,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9725,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R162">
         <v>17</v>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9919,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10016,7 +10016,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R168">
         <v>6</v>
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R169">
         <v>17</v>
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10172,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R171">
         <v>4</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10369,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R175">
         <v>16</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R180">
         <v>7</v>
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10804,7 +10804,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R184">
         <v>26</v>
@@ -10854,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11042,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11092,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R190">
         <v>11</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11192,7 +11192,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R192">
         <v>21</v>
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11530,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R199">
         <v>14</v>
@@ -11580,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R201">
         <v>18</v>
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11730,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R203">
         <v>21</v>
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11833,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R205">
         <v>10</v>
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11936,7 +11936,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R207">
         <v>7</v>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12036,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R209">
         <v>16</v>
@@ -12089,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R210">
         <v>13</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12189,7 +12189,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R212">
         <v>20</v>
@@ -12239,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12336,7 +12336,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R215">
         <v>13</v>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12624,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R221">
         <v>21</v>
@@ -12668,10 +12668,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q222">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12765,7 +12765,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12806,10 +12806,10 @@
         <v>1</v>
       </c>
       <c r="P225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12859,7 +12859,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R226">
         <v>18</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12962,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R228">
         <v>7</v>
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13109,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R231">
         <v>15</v>
@@ -13162,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13353,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13450,7 +13450,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R238">
         <v>8</v>
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R239">
         <v>0</v>
@@ -13553,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13600,7 +13600,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R241">
         <v>26</v>
@@ -13653,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R242">
         <v>14</v>
@@ -13703,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13753,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R244">
         <v>6</v>
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13897,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13994,7 +13994,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R249">
         <v>15</v>
@@ -14044,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14094,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R251">
         <v>5</v>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14194,7 +14194,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R253">
         <v>32</v>
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14294,7 +14294,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R255">
         <v>12</v>
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14391,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14438,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14485,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14535,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R260">
         <v>27</v>
@@ -14588,7 +14588,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R261">
         <v>13</v>
@@ -14638,7 +14638,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14688,7 +14688,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R263">
         <v>19</v>
@@ -14741,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14791,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R265">
         <v>15</v>
@@ -14841,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14888,7 +14888,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14935,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14982,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15073,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15123,7 +15123,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R272">
         <v>35</v>
@@ -15176,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15226,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R274">
         <v>5</v>
@@ -15276,7 +15276,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15323,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15373,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15423,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R278">
         <v>10</v>
@@ -15476,7 +15476,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R279">
         <v>18</v>
@@ -15529,7 +15529,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15579,7 +15579,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R281">
         <v>16</v>
@@ -15629,7 +15629,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15676,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15726,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R284">
         <v>1</v>
@@ -15779,7 +15779,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R285">
         <v>16</v>
@@ -15832,7 +15832,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R286">
         <v>21</v>
@@ -15885,7 +15885,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15935,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R288">
         <v>24</v>
@@ -15988,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16038,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R290">
         <v>4</v>
@@ -16088,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16138,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R292">
         <v>14</v>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16235,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16285,7 +16285,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R295">
         <v>26</v>
@@ -16335,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16379,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16426,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16473,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16520,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16567,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16614,7 +16614,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16664,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R303">
         <v>7</v>
@@ -16717,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R304">
         <v>18</v>
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16820,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R306">
         <v>14</v>
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16917,7 +16917,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17014,7 +17014,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R310">
         <v>12</v>
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17111,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17161,7 +17161,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17211,7 +17211,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R314">
         <v>15</v>
@@ -17261,7 +17261,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17308,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17355,7 +17355,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17402,7 +17402,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17449,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17496,7 +17496,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17543,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17593,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R322">
         <v>5</v>
@@ -17646,7 +17646,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R323">
         <v>6</v>
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17743,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17837,7 +17837,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17934,7 +17934,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R329">
         <v>32</v>
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18031,7 +18031,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18078,7 +18078,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18128,7 +18128,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R333">
         <v>19</v>
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18225,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18272,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18322,7 +18322,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R337">
         <v>8</v>
@@ -18372,7 +18372,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18419,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18469,7 +18469,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R340">
         <v>20</v>
@@ -18519,7 +18519,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18566,7 +18566,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18616,7 +18616,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18666,7 +18666,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R344">
         <v>22</v>
@@ -18710,10 +18710,10 @@
         <v>1</v>
       </c>
       <c r="P345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q345">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18807,7 +18807,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18854,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18942,10 +18942,10 @@
         <v>1</v>
       </c>
       <c r="P350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q350">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19086,7 +19086,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19133,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19183,7 +19183,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R355">
         <v>8</v>
@@ -19233,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19280,7 +19280,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19333,7 +19333,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R358">
         <v>16</v>
@@ -19383,7 +19383,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19433,7 +19433,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R360">
         <v>22</v>
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19536,7 +19536,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R362">
         <v>4</v>
@@ -19586,7 +19586,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19630,7 +19630,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19680,7 +19680,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R365">
         <v>0</v>
@@ -19733,7 +19733,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R366">
         <v>0</v>
@@ -19786,7 +19786,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R367">
         <v>6</v>
@@ -19836,7 +19836,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19886,7 +19886,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R369">
         <v>18</v>
@@ -19939,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R370">
         <v>6</v>
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20036,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20083,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20130,7 +20130,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20180,7 +20180,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R375">
         <v>12</v>
@@ -20233,7 +20233,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R376">
         <v>18</v>
@@ -20286,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20336,7 +20336,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R378">
         <v>18</v>
@@ -20386,7 +20386,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20436,7 +20436,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R380">
         <v>5</v>
@@ -20486,7 +20486,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R382">
         <v>19</v>
@@ -20583,7 +20583,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20633,7 +20633,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R384">
         <v>12</v>
@@ -20683,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20733,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20780,7 +20780,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20833,7 +20833,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R388">
         <v>4</v>
@@ -20886,7 +20886,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R389">
         <v>0</v>
@@ -20936,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21033,7 +21033,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R392">
         <v>18</v>
@@ -21086,7 +21086,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21136,7 +21136,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R394">
         <v>0</v>
@@ -21186,7 +21186,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21233,7 +21233,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21283,7 +21283,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R397">
         <v>23</v>
@@ -21336,7 +21336,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21386,7 +21386,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R399">
         <v>14</v>
@@ -21439,7 +21439,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21489,7 +21489,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R401">
         <v>22</v>
@@ -21542,7 +21542,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21592,7 +21592,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R403">
         <v>9</v>
@@ -21642,7 +21642,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21736,7 +21736,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21789,7 +21789,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R407">
         <v>6</v>
@@ -21836,7 +21836,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21883,7 +21883,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21930,7 +21930,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21980,7 +21980,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R411">
         <v>13</v>
@@ -22033,7 +22033,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22083,7 +22083,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R413">
         <v>18</v>
@@ -22133,7 +22133,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22183,7 +22183,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R415">
         <v>27</v>
@@ -22236,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22286,7 +22286,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R417">
         <v>7</v>
@@ -22339,7 +22339,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R418">
         <v>12</v>
@@ -22389,7 +22389,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22436,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22483,7 +22483,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22530,7 +22530,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22577,7 +22577,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22627,7 +22627,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R424">
         <v>12</v>
@@ -22680,7 +22680,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22730,7 +22730,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R426">
         <v>9</v>
@@ -22780,7 +22780,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22827,7 +22827,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22880,7 +22880,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R429">
         <v>0</v>
@@ -22930,7 +22930,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22977,7 +22977,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23024,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23074,7 +23074,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R433">
         <v>0</v>
@@ -23127,7 +23127,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R434">
         <v>11</v>
@@ -23180,7 +23180,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23227,7 +23227,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23274,7 +23274,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23371,7 +23371,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R439">
         <v>17</v>
@@ -23424,7 +23424,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R440">
         <v>10</v>
@@ -23477,7 +23477,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23527,7 +23527,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R442">
         <v>8</v>
@@ -23577,7 +23577,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23768,7 +23768,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R447">
         <v>23</v>
@@ -23821,7 +23821,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R448">
         <v>13</v>
@@ -23871,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23918,7 +23918,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23965,7 +23965,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24012,7 +24012,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24109,7 +24109,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R454">
         <v>29</v>
@@ -24162,7 +24162,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R455">
         <v>14</v>
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24265,7 +24265,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R457">
         <v>10</v>
@@ -24315,7 +24315,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24365,7 +24365,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R459">
         <v>15</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24462,7 +24462,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24512,7 +24512,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24562,7 +24562,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R463">
         <v>20</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24665,7 +24665,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R465">
         <v>5</v>
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24762,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24859,7 +24859,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R469">
         <v>15</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24956,7 +24956,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R471">
         <v>2</v>
@@ -25006,7 +25006,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25100,7 +25100,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25147,7 +25147,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25197,7 +25197,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R476">
         <v>3</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25297,7 +25297,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25344,7 +25344,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25488,7 +25488,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R482">
         <v>13</v>
@@ -25541,7 +25541,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25635,7 +25635,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25732,7 +25732,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R487">
         <v>4</v>
@@ -25785,7 +25785,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25835,7 +25835,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R489">
         <v>8</v>
@@ -25888,7 +25888,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R490">
         <v>2</v>
@@ -25932,10 +25932,10 @@
         <v>1</v>
       </c>
       <c r="P491" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q491">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25976,7 +25976,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
